--- a/python/commons/线性代数/线性代数.xlsx
+++ b/python/commons/线性代数/线性代数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Py311\202409\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\python\daily_collections\python\commons\线性代数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AAF5A-C0AE-4CEB-A473-8B248A6D072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3C159-7BB4-42FE-924B-4D204F7BAEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>向量加法</t>
   </si>
@@ -99,21 +99,31 @@
     <t>两个矩阵相乘，乘积顺序会有影响</t>
   </si>
   <si>
-    <t>行列式
+    <t xml:space="preserve">行列式
 线性变化对空间的挤压或者拉伸的倍数？
 The determinant of a transformation 
-线性变换的行列式</t>
+线性变换的行列式
+改变了空间的定向。负值标识空间定向发生了改变。
+数值表示区域比例的缩放倍数。
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式的计算方式：
+假设i-hat 只往右发生改变。
+J-hat 只往左发生改变。那么改变的面积就是行列式的结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,6 +138,13 @@
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -658,10 +675,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>96011</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2470911</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3901440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -686,6 +703,138 @@
         <a:xfrm>
           <a:off x="4815841" y="3284220"/>
           <a:ext cx="8478010" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6338585</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2844800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E988AC3E-5120-7AF3-A84D-A593EEB2B358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="7397750"/>
+          <a:ext cx="6338585" cy="2844800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3403600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2574407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B7F046-94DB-353B-CEB6-6051887D4192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12299950" y="7397750"/>
+          <a:ext cx="3403600" cy="2574407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1668163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CDFB63-85B4-821B-6CFC-3EF30FFD41FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17037050" y="7397750"/>
+          <a:ext cx="9131300" cy="1668163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,32 +1112,33 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="91.2" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="91.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48" style="4" customWidth="1"/>
     <col min="2" max="6" width="48" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="91.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="91.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="91.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="91.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="91.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="91.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
@@ -1001,33 +1151,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D3DC79-4D82-4F55-AA59-3DCFC7C3AF3B}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="154.19999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="154.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="65.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="65.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.9140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="241.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="241.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="154.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="228" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="228" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1037,28 +1186,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C0482-22BA-4874-98A0-00F0EEC8F0BD}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="51.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.77734375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="51.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.75" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="142.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" ht="252" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1072,24 +1222,25 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="55.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="66" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="307.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="307.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="187.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="187.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1097,23 +1248,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDC2DD6-2888-431A-944C-9451F5FEFEB4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="70.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="70.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="258.64999999999998" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:1" ht="324" customHeight="1"/>
+    <row r="3" spans="1:1" ht="246.5" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
